--- a/Emulator Tracking.xlsx
+++ b/Emulator Tracking.xlsx
@@ -5,17 +5,18 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Development Boards\OrangePi5\RDYN\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chris\Documents\GitHub\Solaris_mTech\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40FC82D8-D036-458B-8D26-0A9E5753AEF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE4FEB78-F145-446F-B5DC-112CB9CE44FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6645" yWindow="4185" windowWidth="21495" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="181029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="17">
   <si>
     <t>Emulator Name</t>
   </si>
@@ -411,10 +412,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J29"/>
+  <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:XFD5"/>
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -557,150 +558,6 @@
         <v>13</v>
       </c>
       <c r="F11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B12" t="s">
-        <v>13</v>
-      </c>
-      <c r="F12" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B13" t="s">
-        <v>13</v>
-      </c>
-      <c r="F13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B14" t="s">
-        <v>13</v>
-      </c>
-      <c r="F14" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B15" t="s">
-        <v>13</v>
-      </c>
-      <c r="F15" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B16" t="s">
-        <v>13</v>
-      </c>
-      <c r="F16" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B17" t="s">
-        <v>13</v>
-      </c>
-      <c r="F17" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B18" t="s">
-        <v>13</v>
-      </c>
-      <c r="F18" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B19" t="s">
-        <v>13</v>
-      </c>
-      <c r="F19" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B20" t="s">
-        <v>13</v>
-      </c>
-      <c r="F20" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B21" t="s">
-        <v>13</v>
-      </c>
-      <c r="F21" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B22" t="s">
-        <v>13</v>
-      </c>
-      <c r="F22" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B23" t="s">
-        <v>13</v>
-      </c>
-      <c r="F23" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B24" t="s">
-        <v>13</v>
-      </c>
-      <c r="F24" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B25" t="s">
-        <v>13</v>
-      </c>
-      <c r="F25" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B26" t="s">
-        <v>13</v>
-      </c>
-      <c r="F26" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B27" t="s">
-        <v>13</v>
-      </c>
-      <c r="F27" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B28" t="s">
-        <v>13</v>
-      </c>
-      <c r="F28" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="29" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B29" t="s">
-        <v>13</v>
-      </c>
-      <c r="F29" t="s">
         <v>13</v>
       </c>
     </row>
